--- a/biology/Médecine/1216_en_santé_et_médecine/1216_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1216_en_santé_et_médecine/1216_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1216_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1216_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1216 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1216_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1216_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le pape Honoré III « approuve la création d'une école de médecine à Bologne[1] ».
-Fondation de l'hôpital Saint-Sauveur de Lille[2].
-Eudes Ier, baron de Pontchâteau, en Haute-Bretagne, fonde un hôpital ou aumônerie, qu'il place sous le patronage de sainte Catherine[3].
-Foulques, évêque de Toulouse, confie aux dominicains l'ancien hôpital de la porte Arnaud-Bernard[4].
-À Bridgwater, dans le comté de Somerset en Angleterre, William Brewer fait construire   l'hôpital Saint-Jean-Baptiste (Hospital of St. John the Baptist), établissement principalement voué à l'accueil des voyageurs, des malades et des enfants démunis[5].
-Première mention de l'hôpital St. John Baptist, fondé à Bedford par Robert de Parys, sans doute vers 1180[6].
-Vers 1216 : Sigebert IV, comte de Werd et landgrave d'Alsace, fonde la commanderie du Saint-Esprit de Stephansfeld, « au bord d'une route très passante à l'écart de Brumath [...] idéale pour l'exercice de l'hospitalité[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le pape Honoré III « approuve la création d'une école de médecine à Bologne ».
+Fondation de l'hôpital Saint-Sauveur de Lille.
+Eudes Ier, baron de Pontchâteau, en Haute-Bretagne, fonde un hôpital ou aumônerie, qu'il place sous le patronage de sainte Catherine.
+Foulques, évêque de Toulouse, confie aux dominicains l'ancien hôpital de la porte Arnaud-Bernard.
+À Bridgwater, dans le comté de Somerset en Angleterre, William Brewer fait construire   l'hôpital Saint-Jean-Baptiste (Hospital of St. John the Baptist), établissement principalement voué à l'accueil des voyageurs, des malades et des enfants démunis.
+Première mention de l'hôpital St. John Baptist, fondé à Bedford par Robert de Parys, sans doute vers 1180.
+Vers 1216 : Sigebert IV, comte de Werd et landgrave d'Alsace, fonde la commanderie du Saint-Esprit de Stephansfeld, « au bord d'une route très passante à l'écart de Brumath [...] idéale pour l'exercice de l'hospitalité ».</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1216_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1216_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le pape Honoré III s'efforce de remettre une fois encore en vigueur l'interdiction faite aux clercs d'exercer la médecine, déjà rappelée en 1163 par le 6e concile de Tours[8], et ces injonctions, réitérées en 1219, « marquent le début d'une séparation entre les fonctions de prêtre et de médecin[9] ».
-Hugues de Lucques (it) (1180-1258), chirurgien engagé à vie en 1214 par la cité de Bologne, « est payé six cents lires bolognaises par an pour subvenir aux besoins des habitants en chirurgie[10] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le pape Honoré III s'efforce de remettre une fois encore en vigueur l'interdiction faite aux clercs d'exercer la médecine, déjà rappelée en 1163 par le 6e concile de Tours, et ces injonctions, réitérées en 1219, « marquent le début d'une séparation entre les fonctions de prêtre et de médecin ».
+Hugues de Lucques (it) (1180-1258), chirurgien engagé à vie en 1214 par la cité de Bologne, « est payé six cents lires bolognaises par an pour subvenir aux besoins des habitants en chirurgie ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1216_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1216_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1216-1225 : fl. Pierre de Montolieu, médecin, témoin de la rédaction du testament de B. de Corcone en décembre 1216[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1216-1225 : fl. Pierre de Montolieu, médecin, témoin de la rédaction du testament de B. de Corcone en décembre 1216.
 </t>
         </is>
       </c>
